--- a/excel_tmp.xlsx
+++ b/excel_tmp.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LARAVEL\script_cacti_side\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF33D79C-A38D-4160-A6A7-B912544F58BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475E0974-210A-4ADD-AEDB-DE3FEE9F95B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{DAE5F822-963E-4F69-B2C9-DEC51B35DA1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$G$2</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,6 +22,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -58,8 +59,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,12 +378,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE8AB34-E554-4CE5-BB55-2A28F9137954}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:H4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
